--- a/historico_runs.xlsx
+++ b/historico_runs.xlsx
@@ -438,7 +438,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:GC51"/>
+  <dimension ref="A1:GZ51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A51" sqref="A51"/>
@@ -1367,6 +1367,121 @@
           <t>Run184</t>
         </is>
       </c>
+      <c r="GD1" t="inlineStr">
+        <is>
+          <t>Run185</t>
+        </is>
+      </c>
+      <c r="GE1" t="inlineStr">
+        <is>
+          <t>Run186</t>
+        </is>
+      </c>
+      <c r="GF1" t="inlineStr">
+        <is>
+          <t>Run187</t>
+        </is>
+      </c>
+      <c r="GG1" t="inlineStr">
+        <is>
+          <t>Run188</t>
+        </is>
+      </c>
+      <c r="GH1" t="inlineStr">
+        <is>
+          <t>Run189</t>
+        </is>
+      </c>
+      <c r="GI1" t="inlineStr">
+        <is>
+          <t>Run190</t>
+        </is>
+      </c>
+      <c r="GJ1" t="inlineStr">
+        <is>
+          <t>Run191</t>
+        </is>
+      </c>
+      <c r="GK1" t="inlineStr">
+        <is>
+          <t>Run192</t>
+        </is>
+      </c>
+      <c r="GL1" t="inlineStr">
+        <is>
+          <t>Run193</t>
+        </is>
+      </c>
+      <c r="GM1" t="inlineStr">
+        <is>
+          <t>Run194</t>
+        </is>
+      </c>
+      <c r="GN1" t="inlineStr">
+        <is>
+          <t>Run195</t>
+        </is>
+      </c>
+      <c r="GO1" t="inlineStr">
+        <is>
+          <t>Run196</t>
+        </is>
+      </c>
+      <c r="GP1" t="inlineStr">
+        <is>
+          <t>Run197</t>
+        </is>
+      </c>
+      <c r="GQ1" t="inlineStr">
+        <is>
+          <t>Run198</t>
+        </is>
+      </c>
+      <c r="GR1" t="inlineStr">
+        <is>
+          <t>Run199</t>
+        </is>
+      </c>
+      <c r="GS1" t="inlineStr">
+        <is>
+          <t>Run200</t>
+        </is>
+      </c>
+      <c r="GT1" t="inlineStr">
+        <is>
+          <t>Run201</t>
+        </is>
+      </c>
+      <c r="GU1" t="inlineStr">
+        <is>
+          <t>Run202</t>
+        </is>
+      </c>
+      <c r="GV1" t="inlineStr">
+        <is>
+          <t>Run203</t>
+        </is>
+      </c>
+      <c r="GW1" t="inlineStr">
+        <is>
+          <t>Run204</t>
+        </is>
+      </c>
+      <c r="GX1" t="inlineStr">
+        <is>
+          <t>Run205</t>
+        </is>
+      </c>
+      <c r="GY1" t="inlineStr">
+        <is>
+          <t>Run206</t>
+        </is>
+      </c>
+      <c r="GZ1" t="inlineStr">
+        <is>
+          <t>Run207</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -1926,6 +2041,75 @@
       <c r="GC2" t="n">
         <v>0</v>
       </c>
+      <c r="GD2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GE2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GF2" t="n">
+        <v>6.167</v>
+      </c>
+      <c r="GG2" t="n">
+        <v>6.167</v>
+      </c>
+      <c r="GH2" t="n">
+        <v>6.167</v>
+      </c>
+      <c r="GI2" t="n">
+        <v>6.167</v>
+      </c>
+      <c r="GJ2" t="n">
+        <v>6.167</v>
+      </c>
+      <c r="GK2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GL2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GM2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GN2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GO2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GP2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GQ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GR2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GS2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GY2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -2485,6 +2669,75 @@
       <c r="GC3" t="n">
         <v>0</v>
       </c>
+      <c r="GD3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GE3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GF3" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="GG3" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="GH3" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="GI3" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="GJ3" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="GK3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GL3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GM3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GN3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GO3" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="GP3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GQ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GR3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GS3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GY3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -3044,6 +3297,75 @@
       <c r="GC4" t="n">
         <v>15.3</v>
       </c>
+      <c r="GD4" t="n">
+        <v>5.974</v>
+      </c>
+      <c r="GE4" t="n">
+        <v>5.974</v>
+      </c>
+      <c r="GF4" t="n">
+        <v>0</v>
+      </c>
+      <c r="GG4" t="n">
+        <v>0</v>
+      </c>
+      <c r="GH4" t="n">
+        <v>0</v>
+      </c>
+      <c r="GI4" t="n">
+        <v>0</v>
+      </c>
+      <c r="GJ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="GK4" t="n">
+        <v>0</v>
+      </c>
+      <c r="GL4" t="n">
+        <v>0</v>
+      </c>
+      <c r="GM4" t="n">
+        <v>0</v>
+      </c>
+      <c r="GN4" t="n">
+        <v>0</v>
+      </c>
+      <c r="GO4" t="n">
+        <v>0</v>
+      </c>
+      <c r="GP4" t="n">
+        <v>0</v>
+      </c>
+      <c r="GQ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="GR4" t="n">
+        <v>0</v>
+      </c>
+      <c r="GS4" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT4" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU4" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV4" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW4" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX4" t="n">
+        <v>0</v>
+      </c>
+      <c r="GY4" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -3603,6 +3925,75 @@
       <c r="GC5" t="n">
         <v>0</v>
       </c>
+      <c r="GD5" t="n">
+        <v>0</v>
+      </c>
+      <c r="GE5" t="n">
+        <v>0</v>
+      </c>
+      <c r="GF5" t="n">
+        <v>0</v>
+      </c>
+      <c r="GG5" t="n">
+        <v>0</v>
+      </c>
+      <c r="GH5" t="n">
+        <v>0</v>
+      </c>
+      <c r="GI5" t="n">
+        <v>0</v>
+      </c>
+      <c r="GJ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="GK5" t="n">
+        <v>0</v>
+      </c>
+      <c r="GL5" t="n">
+        <v>0</v>
+      </c>
+      <c r="GM5" t="n">
+        <v>0.601</v>
+      </c>
+      <c r="GN5" t="n">
+        <v>0</v>
+      </c>
+      <c r="GO5" t="n">
+        <v>0</v>
+      </c>
+      <c r="GP5" t="n">
+        <v>0</v>
+      </c>
+      <c r="GQ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="GR5" t="n">
+        <v>0</v>
+      </c>
+      <c r="GS5" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT5" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU5" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV5" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW5" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX5" t="n">
+        <v>0</v>
+      </c>
+      <c r="GY5" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -4162,6 +4553,75 @@
       <c r="GC6" t="n">
         <v>0</v>
       </c>
+      <c r="GD6" t="n">
+        <v>0</v>
+      </c>
+      <c r="GE6" t="n">
+        <v>0</v>
+      </c>
+      <c r="GF6" t="n">
+        <v>0</v>
+      </c>
+      <c r="GG6" t="n">
+        <v>0</v>
+      </c>
+      <c r="GH6" t="n">
+        <v>0</v>
+      </c>
+      <c r="GI6" t="n">
+        <v>0</v>
+      </c>
+      <c r="GJ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="GK6" t="n">
+        <v>0</v>
+      </c>
+      <c r="GL6" t="n">
+        <v>0</v>
+      </c>
+      <c r="GM6" t="n">
+        <v>0</v>
+      </c>
+      <c r="GN6" t="n">
+        <v>28.568</v>
+      </c>
+      <c r="GO6" t="n">
+        <v>0</v>
+      </c>
+      <c r="GP6" t="n">
+        <v>0</v>
+      </c>
+      <c r="GQ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="GR6" t="n">
+        <v>0</v>
+      </c>
+      <c r="GS6" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT6" t="n">
+        <v>26.531</v>
+      </c>
+      <c r="GU6" t="n">
+        <v>36.336</v>
+      </c>
+      <c r="GV6" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW6" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX6" t="n">
+        <v>26.434</v>
+      </c>
+      <c r="GY6" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -4721,6 +5181,75 @@
       <c r="GC7" t="n">
         <v>0</v>
       </c>
+      <c r="GD7" t="n">
+        <v>0</v>
+      </c>
+      <c r="GE7" t="n">
+        <v>0</v>
+      </c>
+      <c r="GF7" t="n">
+        <v>0</v>
+      </c>
+      <c r="GG7" t="n">
+        <v>0</v>
+      </c>
+      <c r="GH7" t="n">
+        <v>0</v>
+      </c>
+      <c r="GI7" t="n">
+        <v>0</v>
+      </c>
+      <c r="GJ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="GK7" t="n">
+        <v>0</v>
+      </c>
+      <c r="GL7" t="n">
+        <v>0</v>
+      </c>
+      <c r="GM7" t="n">
+        <v>0</v>
+      </c>
+      <c r="GN7" t="n">
+        <v>0</v>
+      </c>
+      <c r="GO7" t="n">
+        <v>0</v>
+      </c>
+      <c r="GP7" t="n">
+        <v>0</v>
+      </c>
+      <c r="GQ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="GR7" t="n">
+        <v>0</v>
+      </c>
+      <c r="GS7" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT7" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU7" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV7" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW7" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX7" t="n">
+        <v>0</v>
+      </c>
+      <c r="GY7" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -5280,6 +5809,75 @@
       <c r="GC8" t="n">
         <v>0</v>
       </c>
+      <c r="GD8" t="n">
+        <v>0</v>
+      </c>
+      <c r="GE8" t="n">
+        <v>0</v>
+      </c>
+      <c r="GF8" t="n">
+        <v>0</v>
+      </c>
+      <c r="GG8" t="n">
+        <v>0</v>
+      </c>
+      <c r="GH8" t="n">
+        <v>0</v>
+      </c>
+      <c r="GI8" t="n">
+        <v>0</v>
+      </c>
+      <c r="GJ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="GK8" t="n">
+        <v>0</v>
+      </c>
+      <c r="GL8" t="n">
+        <v>0</v>
+      </c>
+      <c r="GM8" t="n">
+        <v>0</v>
+      </c>
+      <c r="GN8" t="n">
+        <v>0</v>
+      </c>
+      <c r="GO8" t="n">
+        <v>0</v>
+      </c>
+      <c r="GP8" t="n">
+        <v>0</v>
+      </c>
+      <c r="GQ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="GR8" t="n">
+        <v>0</v>
+      </c>
+      <c r="GS8" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT8" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU8" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV8" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW8" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX8" t="n">
+        <v>0</v>
+      </c>
+      <c r="GY8" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -5839,6 +6437,75 @@
       <c r="GC9" t="n">
         <v>0</v>
       </c>
+      <c r="GD9" t="n">
+        <v>0</v>
+      </c>
+      <c r="GE9" t="n">
+        <v>0</v>
+      </c>
+      <c r="GF9" t="n">
+        <v>0</v>
+      </c>
+      <c r="GG9" t="n">
+        <v>0</v>
+      </c>
+      <c r="GH9" t="n">
+        <v>0</v>
+      </c>
+      <c r="GI9" t="n">
+        <v>0</v>
+      </c>
+      <c r="GJ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="GK9" t="n">
+        <v>0</v>
+      </c>
+      <c r="GL9" t="n">
+        <v>0</v>
+      </c>
+      <c r="GM9" t="n">
+        <v>0</v>
+      </c>
+      <c r="GN9" t="n">
+        <v>0</v>
+      </c>
+      <c r="GO9" t="n">
+        <v>0</v>
+      </c>
+      <c r="GP9" t="n">
+        <v>0</v>
+      </c>
+      <c r="GQ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="GR9" t="n">
+        <v>0</v>
+      </c>
+      <c r="GS9" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT9" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU9" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV9" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW9" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX9" t="n">
+        <v>0</v>
+      </c>
+      <c r="GY9" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -6398,6 +7065,75 @@
       <c r="GC10" t="n">
         <v>0</v>
       </c>
+      <c r="GD10" t="n">
+        <v>0</v>
+      </c>
+      <c r="GE10" t="n">
+        <v>0</v>
+      </c>
+      <c r="GF10" t="n">
+        <v>0</v>
+      </c>
+      <c r="GG10" t="n">
+        <v>0</v>
+      </c>
+      <c r="GH10" t="n">
+        <v>0</v>
+      </c>
+      <c r="GI10" t="n">
+        <v>0</v>
+      </c>
+      <c r="GJ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="GK10" t="n">
+        <v>0</v>
+      </c>
+      <c r="GL10" t="n">
+        <v>0</v>
+      </c>
+      <c r="GM10" t="n">
+        <v>0</v>
+      </c>
+      <c r="GN10" t="n">
+        <v>0</v>
+      </c>
+      <c r="GO10" t="n">
+        <v>0</v>
+      </c>
+      <c r="GP10" t="n">
+        <v>0</v>
+      </c>
+      <c r="GQ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="GR10" t="n">
+        <v>0</v>
+      </c>
+      <c r="GS10" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT10" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU10" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV10" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW10" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX10" t="n">
+        <v>0</v>
+      </c>
+      <c r="GY10" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -6957,6 +7693,75 @@
       <c r="GC11" t="n">
         <v>0</v>
       </c>
+      <c r="GD11" t="n">
+        <v>0</v>
+      </c>
+      <c r="GE11" t="n">
+        <v>0</v>
+      </c>
+      <c r="GF11" t="n">
+        <v>0</v>
+      </c>
+      <c r="GG11" t="n">
+        <v>0</v>
+      </c>
+      <c r="GH11" t="n">
+        <v>0</v>
+      </c>
+      <c r="GI11" t="n">
+        <v>0</v>
+      </c>
+      <c r="GJ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="GK11" t="n">
+        <v>0</v>
+      </c>
+      <c r="GL11" t="n">
+        <v>0</v>
+      </c>
+      <c r="GM11" t="n">
+        <v>0</v>
+      </c>
+      <c r="GN11" t="n">
+        <v>0</v>
+      </c>
+      <c r="GO11" t="n">
+        <v>0</v>
+      </c>
+      <c r="GP11" t="n">
+        <v>0</v>
+      </c>
+      <c r="GQ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="GR11" t="n">
+        <v>0</v>
+      </c>
+      <c r="GS11" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT11" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU11" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV11" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW11" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX11" t="n">
+        <v>0</v>
+      </c>
+      <c r="GY11" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -7516,6 +8321,75 @@
       <c r="GC12" t="n">
         <v>0</v>
       </c>
+      <c r="GD12" t="n">
+        <v>0</v>
+      </c>
+      <c r="GE12" t="n">
+        <v>0</v>
+      </c>
+      <c r="GF12" t="n">
+        <v>0</v>
+      </c>
+      <c r="GG12" t="n">
+        <v>0</v>
+      </c>
+      <c r="GH12" t="n">
+        <v>0</v>
+      </c>
+      <c r="GI12" t="n">
+        <v>0</v>
+      </c>
+      <c r="GJ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="GK12" t="n">
+        <v>0</v>
+      </c>
+      <c r="GL12" t="n">
+        <v>0</v>
+      </c>
+      <c r="GM12" t="n">
+        <v>0</v>
+      </c>
+      <c r="GN12" t="n">
+        <v>0</v>
+      </c>
+      <c r="GO12" t="n">
+        <v>0</v>
+      </c>
+      <c r="GP12" t="n">
+        <v>0</v>
+      </c>
+      <c r="GQ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="GR12" t="n">
+        <v>0</v>
+      </c>
+      <c r="GS12" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT12" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU12" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV12" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW12" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX12" t="n">
+        <v>0</v>
+      </c>
+      <c r="GY12" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -8077,6 +8951,75 @@
       <c r="GC13" t="n">
         <v>0</v>
       </c>
+      <c r="GD13" t="n">
+        <v>0</v>
+      </c>
+      <c r="GE13" t="n">
+        <v>0</v>
+      </c>
+      <c r="GF13" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="GG13" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="GH13" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="GI13" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="GJ13" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="GK13" t="n">
+        <v>0</v>
+      </c>
+      <c r="GL13" t="n">
+        <v>0</v>
+      </c>
+      <c r="GM13" t="n">
+        <v>0</v>
+      </c>
+      <c r="GN13" t="n">
+        <v>0</v>
+      </c>
+      <c r="GO13" t="n">
+        <v>0</v>
+      </c>
+      <c r="GP13" t="n">
+        <v>0</v>
+      </c>
+      <c r="GQ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="GR13" t="n">
+        <v>0</v>
+      </c>
+      <c r="GS13" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT13" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU13" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV13" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW13" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX13" t="n">
+        <v>0</v>
+      </c>
+      <c r="GY13" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -8636,6 +9579,75 @@
       <c r="GC14" t="n">
         <v>0</v>
       </c>
+      <c r="GD14" t="n">
+        <v>0</v>
+      </c>
+      <c r="GE14" t="n">
+        <v>0</v>
+      </c>
+      <c r="GF14" t="n">
+        <v>0</v>
+      </c>
+      <c r="GG14" t="n">
+        <v>0</v>
+      </c>
+      <c r="GH14" t="n">
+        <v>0</v>
+      </c>
+      <c r="GI14" t="n">
+        <v>0</v>
+      </c>
+      <c r="GJ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="GK14" t="n">
+        <v>0</v>
+      </c>
+      <c r="GL14" t="n">
+        <v>0</v>
+      </c>
+      <c r="GM14" t="n">
+        <v>0</v>
+      </c>
+      <c r="GN14" t="n">
+        <v>0</v>
+      </c>
+      <c r="GO14" t="n">
+        <v>0</v>
+      </c>
+      <c r="GP14" t="n">
+        <v>0</v>
+      </c>
+      <c r="GQ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="GR14" t="n">
+        <v>0</v>
+      </c>
+      <c r="GS14" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT14" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU14" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV14" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW14" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX14" t="n">
+        <v>0</v>
+      </c>
+      <c r="GY14" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -9195,6 +10207,75 @@
       <c r="GC15" t="n">
         <v>0</v>
       </c>
+      <c r="GD15" t="n">
+        <v>0</v>
+      </c>
+      <c r="GE15" t="n">
+        <v>0</v>
+      </c>
+      <c r="GF15" t="n">
+        <v>0</v>
+      </c>
+      <c r="GG15" t="n">
+        <v>0</v>
+      </c>
+      <c r="GH15" t="n">
+        <v>0</v>
+      </c>
+      <c r="GI15" t="n">
+        <v>0</v>
+      </c>
+      <c r="GJ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="GK15" t="n">
+        <v>0</v>
+      </c>
+      <c r="GL15" t="n">
+        <v>0</v>
+      </c>
+      <c r="GM15" t="n">
+        <v>0</v>
+      </c>
+      <c r="GN15" t="n">
+        <v>0</v>
+      </c>
+      <c r="GO15" t="n">
+        <v>0</v>
+      </c>
+      <c r="GP15" t="n">
+        <v>0</v>
+      </c>
+      <c r="GQ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="GR15" t="n">
+        <v>0</v>
+      </c>
+      <c r="GS15" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT15" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU15" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV15" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW15" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX15" t="n">
+        <v>0</v>
+      </c>
+      <c r="GY15" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -9754,6 +10835,75 @@
       <c r="GC16" t="n">
         <v>0</v>
       </c>
+      <c r="GD16" t="n">
+        <v>0</v>
+      </c>
+      <c r="GE16" t="n">
+        <v>0</v>
+      </c>
+      <c r="GF16" t="n">
+        <v>0</v>
+      </c>
+      <c r="GG16" t="n">
+        <v>0</v>
+      </c>
+      <c r="GH16" t="n">
+        <v>0</v>
+      </c>
+      <c r="GI16" t="n">
+        <v>0</v>
+      </c>
+      <c r="GJ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="GK16" t="n">
+        <v>0</v>
+      </c>
+      <c r="GL16" t="n">
+        <v>0</v>
+      </c>
+      <c r="GM16" t="n">
+        <v>0</v>
+      </c>
+      <c r="GN16" t="n">
+        <v>0</v>
+      </c>
+      <c r="GO16" t="n">
+        <v>0</v>
+      </c>
+      <c r="GP16" t="n">
+        <v>0</v>
+      </c>
+      <c r="GQ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="GR16" t="n">
+        <v>0</v>
+      </c>
+      <c r="GS16" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT16" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU16" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV16" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW16" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX16" t="n">
+        <v>0</v>
+      </c>
+      <c r="GY16" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -10313,6 +11463,75 @@
       <c r="GC17" t="n">
         <v>0</v>
       </c>
+      <c r="GD17" t="n">
+        <v>0</v>
+      </c>
+      <c r="GE17" t="n">
+        <v>0</v>
+      </c>
+      <c r="GF17" t="n">
+        <v>0</v>
+      </c>
+      <c r="GG17" t="n">
+        <v>0</v>
+      </c>
+      <c r="GH17" t="n">
+        <v>0</v>
+      </c>
+      <c r="GI17" t="n">
+        <v>0</v>
+      </c>
+      <c r="GJ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="GK17" t="n">
+        <v>0</v>
+      </c>
+      <c r="GL17" t="n">
+        <v>0</v>
+      </c>
+      <c r="GM17" t="n">
+        <v>0</v>
+      </c>
+      <c r="GN17" t="n">
+        <v>0</v>
+      </c>
+      <c r="GO17" t="n">
+        <v>0</v>
+      </c>
+      <c r="GP17" t="n">
+        <v>0</v>
+      </c>
+      <c r="GQ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="GR17" t="n">
+        <v>0</v>
+      </c>
+      <c r="GS17" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT17" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU17" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV17" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW17" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX17" t="n">
+        <v>0</v>
+      </c>
+      <c r="GY17" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -10872,6 +12091,75 @@
       <c r="GC18" t="n">
         <v>0</v>
       </c>
+      <c r="GD18" t="n">
+        <v>0</v>
+      </c>
+      <c r="GE18" t="n">
+        <v>0</v>
+      </c>
+      <c r="GF18" t="n">
+        <v>0</v>
+      </c>
+      <c r="GG18" t="n">
+        <v>0</v>
+      </c>
+      <c r="GH18" t="n">
+        <v>0</v>
+      </c>
+      <c r="GI18" t="n">
+        <v>0</v>
+      </c>
+      <c r="GJ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="GK18" t="n">
+        <v>0</v>
+      </c>
+      <c r="GL18" t="n">
+        <v>0</v>
+      </c>
+      <c r="GM18" t="n">
+        <v>0</v>
+      </c>
+      <c r="GN18" t="n">
+        <v>0</v>
+      </c>
+      <c r="GO18" t="n">
+        <v>0</v>
+      </c>
+      <c r="GP18" t="n">
+        <v>0</v>
+      </c>
+      <c r="GQ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="GR18" t="n">
+        <v>0</v>
+      </c>
+      <c r="GS18" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT18" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU18" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV18" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW18" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX18" t="n">
+        <v>0</v>
+      </c>
+      <c r="GY18" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -11431,6 +12719,75 @@
       <c r="GC19" t="n">
         <v>0</v>
       </c>
+      <c r="GD19" t="n">
+        <v>0</v>
+      </c>
+      <c r="GE19" t="n">
+        <v>0</v>
+      </c>
+      <c r="GF19" t="n">
+        <v>0</v>
+      </c>
+      <c r="GG19" t="n">
+        <v>0</v>
+      </c>
+      <c r="GH19" t="n">
+        <v>0</v>
+      </c>
+      <c r="GI19" t="n">
+        <v>0</v>
+      </c>
+      <c r="GJ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="GK19" t="n">
+        <v>0</v>
+      </c>
+      <c r="GL19" t="n">
+        <v>0</v>
+      </c>
+      <c r="GM19" t="n">
+        <v>0</v>
+      </c>
+      <c r="GN19" t="n">
+        <v>0</v>
+      </c>
+      <c r="GO19" t="n">
+        <v>0</v>
+      </c>
+      <c r="GP19" t="n">
+        <v>0</v>
+      </c>
+      <c r="GQ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="GR19" t="n">
+        <v>27.767</v>
+      </c>
+      <c r="GS19" t="n">
+        <v>26.666</v>
+      </c>
+      <c r="GT19" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU19" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV19" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW19" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX19" t="n">
+        <v>0</v>
+      </c>
+      <c r="GY19" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -11990,6 +13347,75 @@
       <c r="GC20" t="n">
         <v>0</v>
       </c>
+      <c r="GD20" t="n">
+        <v>0</v>
+      </c>
+      <c r="GE20" t="n">
+        <v>0</v>
+      </c>
+      <c r="GF20" t="n">
+        <v>15.569</v>
+      </c>
+      <c r="GG20" t="n">
+        <v>15.569</v>
+      </c>
+      <c r="GH20" t="n">
+        <v>15.569</v>
+      </c>
+      <c r="GI20" t="n">
+        <v>15.569</v>
+      </c>
+      <c r="GJ20" t="n">
+        <v>15.569</v>
+      </c>
+      <c r="GK20" t="n">
+        <v>0</v>
+      </c>
+      <c r="GL20" t="n">
+        <v>0</v>
+      </c>
+      <c r="GM20" t="n">
+        <v>0</v>
+      </c>
+      <c r="GN20" t="n">
+        <v>0</v>
+      </c>
+      <c r="GO20" t="n">
+        <v>0</v>
+      </c>
+      <c r="GP20" t="n">
+        <v>0</v>
+      </c>
+      <c r="GQ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="GR20" t="n">
+        <v>32.633</v>
+      </c>
+      <c r="GS20" t="n">
+        <v>36.701</v>
+      </c>
+      <c r="GT20" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU20" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV20" t="n">
+        <v>28.133</v>
+      </c>
+      <c r="GW20" t="n">
+        <v>30.967</v>
+      </c>
+      <c r="GX20" t="n">
+        <v>0</v>
+      </c>
+      <c r="GY20" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ20" t="n">
+        <v>27.032</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -12549,6 +13975,75 @@
       <c r="GC21" t="n">
         <v>0</v>
       </c>
+      <c r="GD21" t="n">
+        <v>0</v>
+      </c>
+      <c r="GE21" t="n">
+        <v>0</v>
+      </c>
+      <c r="GF21" t="n">
+        <v>0</v>
+      </c>
+      <c r="GG21" t="n">
+        <v>0</v>
+      </c>
+      <c r="GH21" t="n">
+        <v>0</v>
+      </c>
+      <c r="GI21" t="n">
+        <v>0</v>
+      </c>
+      <c r="GJ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="GK21" t="n">
+        <v>0</v>
+      </c>
+      <c r="GL21" t="n">
+        <v>0</v>
+      </c>
+      <c r="GM21" t="n">
+        <v>26.597</v>
+      </c>
+      <c r="GN21" t="n">
+        <v>0</v>
+      </c>
+      <c r="GO21" t="n">
+        <v>0</v>
+      </c>
+      <c r="GP21" t="n">
+        <v>37.202</v>
+      </c>
+      <c r="GQ21" t="n">
+        <v>27.231</v>
+      </c>
+      <c r="GR21" t="n">
+        <v>0</v>
+      </c>
+      <c r="GS21" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT21" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU21" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV21" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW21" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX21" t="n">
+        <v>0</v>
+      </c>
+      <c r="GY21" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -13108,6 +14603,75 @@
       <c r="GC22" t="n">
         <v>16.299</v>
       </c>
+      <c r="GD22" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="GE22" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="GF22" t="n">
+        <v>0</v>
+      </c>
+      <c r="GG22" t="n">
+        <v>0</v>
+      </c>
+      <c r="GH22" t="n">
+        <v>0</v>
+      </c>
+      <c r="GI22" t="n">
+        <v>0</v>
+      </c>
+      <c r="GJ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="GK22" t="n">
+        <v>0.067</v>
+      </c>
+      <c r="GL22" t="n">
+        <v>0.067</v>
+      </c>
+      <c r="GM22" t="n">
+        <v>0</v>
+      </c>
+      <c r="GN22" t="n">
+        <v>0</v>
+      </c>
+      <c r="GO22" t="n">
+        <v>0</v>
+      </c>
+      <c r="GP22" t="n">
+        <v>0</v>
+      </c>
+      <c r="GQ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="GR22" t="n">
+        <v>0</v>
+      </c>
+      <c r="GS22" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT22" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU22" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV22" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW22" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX22" t="n">
+        <v>0</v>
+      </c>
+      <c r="GY22" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -13667,6 +15231,75 @@
       <c r="GC23" t="n">
         <v>0</v>
       </c>
+      <c r="GD23" t="n">
+        <v>0</v>
+      </c>
+      <c r="GE23" t="n">
+        <v>0</v>
+      </c>
+      <c r="GF23" t="n">
+        <v>6.033</v>
+      </c>
+      <c r="GG23" t="n">
+        <v>6.033</v>
+      </c>
+      <c r="GH23" t="n">
+        <v>6.033</v>
+      </c>
+      <c r="GI23" t="n">
+        <v>6.033</v>
+      </c>
+      <c r="GJ23" t="n">
+        <v>6.033</v>
+      </c>
+      <c r="GK23" t="n">
+        <v>0</v>
+      </c>
+      <c r="GL23" t="n">
+        <v>0</v>
+      </c>
+      <c r="GM23" t="n">
+        <v>0</v>
+      </c>
+      <c r="GN23" t="n">
+        <v>26.332</v>
+      </c>
+      <c r="GO23" t="n">
+        <v>0</v>
+      </c>
+      <c r="GP23" t="n">
+        <v>0</v>
+      </c>
+      <c r="GQ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="GR23" t="n">
+        <v>0</v>
+      </c>
+      <c r="GS23" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT23" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU23" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV23" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW23" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX23" t="n">
+        <v>0</v>
+      </c>
+      <c r="GY23" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -14226,6 +15859,75 @@
       <c r="GC24" t="n">
         <v>0</v>
       </c>
+      <c r="GD24" t="n">
+        <v>0</v>
+      </c>
+      <c r="GE24" t="n">
+        <v>0</v>
+      </c>
+      <c r="GF24" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="GG24" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="GH24" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="GI24" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="GJ24" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="GK24" t="n">
+        <v>0</v>
+      </c>
+      <c r="GL24" t="n">
+        <v>0</v>
+      </c>
+      <c r="GM24" t="n">
+        <v>0</v>
+      </c>
+      <c r="GN24" t="n">
+        <v>0</v>
+      </c>
+      <c r="GO24" t="n">
+        <v>0</v>
+      </c>
+      <c r="GP24" t="n">
+        <v>0</v>
+      </c>
+      <c r="GQ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="GR24" t="n">
+        <v>0</v>
+      </c>
+      <c r="GS24" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT24" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU24" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV24" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW24" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX24" t="n">
+        <v>0</v>
+      </c>
+      <c r="GY24" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -14785,6 +16487,75 @@
       <c r="GC25" t="n">
         <v>9.9</v>
       </c>
+      <c r="GD25" t="n">
+        <v>3.133</v>
+      </c>
+      <c r="GE25" t="n">
+        <v>3.133</v>
+      </c>
+      <c r="GF25" t="n">
+        <v>0</v>
+      </c>
+      <c r="GG25" t="n">
+        <v>0</v>
+      </c>
+      <c r="GH25" t="n">
+        <v>0</v>
+      </c>
+      <c r="GI25" t="n">
+        <v>0</v>
+      </c>
+      <c r="GJ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="GK25" t="n">
+        <v>20.232</v>
+      </c>
+      <c r="GL25" t="n">
+        <v>20.232</v>
+      </c>
+      <c r="GM25" t="n">
+        <v>0</v>
+      </c>
+      <c r="GN25" t="n">
+        <v>0</v>
+      </c>
+      <c r="GO25" t="n">
+        <v>0</v>
+      </c>
+      <c r="GP25" t="n">
+        <v>0</v>
+      </c>
+      <c r="GQ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="GR25" t="n">
+        <v>0</v>
+      </c>
+      <c r="GS25" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT25" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU25" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV25" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW25" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX25" t="n">
+        <v>0</v>
+      </c>
+      <c r="GY25" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -15344,6 +17115,75 @@
       <c r="GC26" t="n">
         <v>0</v>
       </c>
+      <c r="GD26" t="n">
+        <v>0</v>
+      </c>
+      <c r="GE26" t="n">
+        <v>0</v>
+      </c>
+      <c r="GF26" t="n">
+        <v>0</v>
+      </c>
+      <c r="GG26" t="n">
+        <v>0</v>
+      </c>
+      <c r="GH26" t="n">
+        <v>0</v>
+      </c>
+      <c r="GI26" t="n">
+        <v>0</v>
+      </c>
+      <c r="GJ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="GK26" t="n">
+        <v>0</v>
+      </c>
+      <c r="GL26" t="n">
+        <v>0</v>
+      </c>
+      <c r="GM26" t="n">
+        <v>35.335</v>
+      </c>
+      <c r="GN26" t="n">
+        <v>0</v>
+      </c>
+      <c r="GO26" t="n">
+        <v>0</v>
+      </c>
+      <c r="GP26" t="n">
+        <v>0</v>
+      </c>
+      <c r="GQ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="GR26" t="n">
+        <v>0</v>
+      </c>
+      <c r="GS26" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT26" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU26" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV26" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW26" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX26" t="n">
+        <v>0</v>
+      </c>
+      <c r="GY26" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -15903,6 +17743,75 @@
       <c r="GC27" t="n">
         <v>0</v>
       </c>
+      <c r="GD27" t="n">
+        <v>0</v>
+      </c>
+      <c r="GE27" t="n">
+        <v>0</v>
+      </c>
+      <c r="GF27" t="n">
+        <v>0</v>
+      </c>
+      <c r="GG27" t="n">
+        <v>0</v>
+      </c>
+      <c r="GH27" t="n">
+        <v>0</v>
+      </c>
+      <c r="GI27" t="n">
+        <v>0</v>
+      </c>
+      <c r="GJ27" t="n">
+        <v>0</v>
+      </c>
+      <c r="GK27" t="n">
+        <v>0</v>
+      </c>
+      <c r="GL27" t="n">
+        <v>0</v>
+      </c>
+      <c r="GM27" t="n">
+        <v>0</v>
+      </c>
+      <c r="GN27" t="n">
+        <v>0</v>
+      </c>
+      <c r="GO27" t="n">
+        <v>0</v>
+      </c>
+      <c r="GP27" t="n">
+        <v>0</v>
+      </c>
+      <c r="GQ27" t="n">
+        <v>0</v>
+      </c>
+      <c r="GR27" t="n">
+        <v>0</v>
+      </c>
+      <c r="GS27" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT27" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU27" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV27" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW27" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX27" t="n">
+        <v>0</v>
+      </c>
+      <c r="GY27" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -16462,6 +18371,75 @@
       <c r="GC28" t="n">
         <v>0.033</v>
       </c>
+      <c r="GD28" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="GE28" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="GF28" t="n">
+        <v>0</v>
+      </c>
+      <c r="GG28" t="n">
+        <v>0</v>
+      </c>
+      <c r="GH28" t="n">
+        <v>0</v>
+      </c>
+      <c r="GI28" t="n">
+        <v>0</v>
+      </c>
+      <c r="GJ28" t="n">
+        <v>0</v>
+      </c>
+      <c r="GK28" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="GL28" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="GM28" t="n">
+        <v>0</v>
+      </c>
+      <c r="GN28" t="n">
+        <v>0</v>
+      </c>
+      <c r="GO28" t="n">
+        <v>0</v>
+      </c>
+      <c r="GP28" t="n">
+        <v>0</v>
+      </c>
+      <c r="GQ28" t="n">
+        <v>0</v>
+      </c>
+      <c r="GR28" t="n">
+        <v>0</v>
+      </c>
+      <c r="GS28" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT28" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU28" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV28" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW28" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX28" t="n">
+        <v>0</v>
+      </c>
+      <c r="GY28" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -17021,6 +18999,75 @@
       <c r="GC29" t="n">
         <v>0</v>
       </c>
+      <c r="GD29" t="n">
+        <v>0</v>
+      </c>
+      <c r="GE29" t="n">
+        <v>0</v>
+      </c>
+      <c r="GF29" t="n">
+        <v>9.497999999999999</v>
+      </c>
+      <c r="GG29" t="n">
+        <v>9.497999999999999</v>
+      </c>
+      <c r="GH29" t="n">
+        <v>9.497999999999999</v>
+      </c>
+      <c r="GI29" t="n">
+        <v>9.497999999999999</v>
+      </c>
+      <c r="GJ29" t="n">
+        <v>9.497999999999999</v>
+      </c>
+      <c r="GK29" t="n">
+        <v>0</v>
+      </c>
+      <c r="GL29" t="n">
+        <v>0</v>
+      </c>
+      <c r="GM29" t="n">
+        <v>0</v>
+      </c>
+      <c r="GN29" t="n">
+        <v>0</v>
+      </c>
+      <c r="GO29" t="n">
+        <v>0</v>
+      </c>
+      <c r="GP29" t="n">
+        <v>0</v>
+      </c>
+      <c r="GQ29" t="n">
+        <v>0</v>
+      </c>
+      <c r="GR29" t="n">
+        <v>0</v>
+      </c>
+      <c r="GS29" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT29" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU29" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV29" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW29" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX29" t="n">
+        <v>0</v>
+      </c>
+      <c r="GY29" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -17580,6 +19627,75 @@
       <c r="GC30" t="n">
         <v>0</v>
       </c>
+      <c r="GD30" t="n">
+        <v>0</v>
+      </c>
+      <c r="GE30" t="n">
+        <v>0</v>
+      </c>
+      <c r="GF30" t="n">
+        <v>0</v>
+      </c>
+      <c r="GG30" t="n">
+        <v>0</v>
+      </c>
+      <c r="GH30" t="n">
+        <v>0</v>
+      </c>
+      <c r="GI30" t="n">
+        <v>0</v>
+      </c>
+      <c r="GJ30" t="n">
+        <v>0</v>
+      </c>
+      <c r="GK30" t="n">
+        <v>0</v>
+      </c>
+      <c r="GL30" t="n">
+        <v>0</v>
+      </c>
+      <c r="GM30" t="n">
+        <v>0</v>
+      </c>
+      <c r="GN30" t="n">
+        <v>0</v>
+      </c>
+      <c r="GO30" t="n">
+        <v>0</v>
+      </c>
+      <c r="GP30" t="n">
+        <v>0</v>
+      </c>
+      <c r="GQ30" t="n">
+        <v>0</v>
+      </c>
+      <c r="GR30" t="n">
+        <v>0</v>
+      </c>
+      <c r="GS30" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT30" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU30" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV30" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW30" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX30" t="n">
+        <v>0</v>
+      </c>
+      <c r="GY30" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -18139,6 +20255,75 @@
       <c r="GC31" t="n">
         <v>0.433</v>
       </c>
+      <c r="GD31" t="n">
+        <v>5.767</v>
+      </c>
+      <c r="GE31" t="n">
+        <v>5.767</v>
+      </c>
+      <c r="GF31" t="n">
+        <v>0</v>
+      </c>
+      <c r="GG31" t="n">
+        <v>0</v>
+      </c>
+      <c r="GH31" t="n">
+        <v>0</v>
+      </c>
+      <c r="GI31" t="n">
+        <v>0</v>
+      </c>
+      <c r="GJ31" t="n">
+        <v>0</v>
+      </c>
+      <c r="GK31" t="n">
+        <v>3.834</v>
+      </c>
+      <c r="GL31" t="n">
+        <v>3.834</v>
+      </c>
+      <c r="GM31" t="n">
+        <v>0</v>
+      </c>
+      <c r="GN31" t="n">
+        <v>0</v>
+      </c>
+      <c r="GO31" t="n">
+        <v>0</v>
+      </c>
+      <c r="GP31" t="n">
+        <v>0</v>
+      </c>
+      <c r="GQ31" t="n">
+        <v>0</v>
+      </c>
+      <c r="GR31" t="n">
+        <v>0</v>
+      </c>
+      <c r="GS31" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT31" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU31" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV31" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW31" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX31" t="n">
+        <v>0</v>
+      </c>
+      <c r="GY31" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -18698,6 +20883,75 @@
       <c r="GC32" t="n">
         <v>0</v>
       </c>
+      <c r="GD32" t="n">
+        <v>0</v>
+      </c>
+      <c r="GE32" t="n">
+        <v>0</v>
+      </c>
+      <c r="GF32" t="n">
+        <v>0</v>
+      </c>
+      <c r="GG32" t="n">
+        <v>0</v>
+      </c>
+      <c r="GH32" t="n">
+        <v>0</v>
+      </c>
+      <c r="GI32" t="n">
+        <v>0</v>
+      </c>
+      <c r="GJ32" t="n">
+        <v>0</v>
+      </c>
+      <c r="GK32" t="n">
+        <v>0</v>
+      </c>
+      <c r="GL32" t="n">
+        <v>0</v>
+      </c>
+      <c r="GM32" t="n">
+        <v>0</v>
+      </c>
+      <c r="GN32" t="n">
+        <v>0</v>
+      </c>
+      <c r="GO32" t="n">
+        <v>0</v>
+      </c>
+      <c r="GP32" t="n">
+        <v>0</v>
+      </c>
+      <c r="GQ32" t="n">
+        <v>0</v>
+      </c>
+      <c r="GR32" t="n">
+        <v>0</v>
+      </c>
+      <c r="GS32" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT32" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU32" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV32" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW32" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX32" t="n">
+        <v>0</v>
+      </c>
+      <c r="GY32" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -19257,6 +21511,75 @@
       <c r="GC33" t="n">
         <v>0</v>
       </c>
+      <c r="GD33" t="n">
+        <v>0</v>
+      </c>
+      <c r="GE33" t="n">
+        <v>0</v>
+      </c>
+      <c r="GF33" t="n">
+        <v>0</v>
+      </c>
+      <c r="GG33" t="n">
+        <v>0</v>
+      </c>
+      <c r="GH33" t="n">
+        <v>0</v>
+      </c>
+      <c r="GI33" t="n">
+        <v>0</v>
+      </c>
+      <c r="GJ33" t="n">
+        <v>0</v>
+      </c>
+      <c r="GK33" t="n">
+        <v>0</v>
+      </c>
+      <c r="GL33" t="n">
+        <v>0</v>
+      </c>
+      <c r="GM33" t="n">
+        <v>0</v>
+      </c>
+      <c r="GN33" t="n">
+        <v>0</v>
+      </c>
+      <c r="GO33" t="n">
+        <v>0</v>
+      </c>
+      <c r="GP33" t="n">
+        <v>0</v>
+      </c>
+      <c r="GQ33" t="n">
+        <v>0</v>
+      </c>
+      <c r="GR33" t="n">
+        <v>0</v>
+      </c>
+      <c r="GS33" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT33" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU33" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV33" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW33" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX33" t="n">
+        <v>0</v>
+      </c>
+      <c r="GY33" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -19816,6 +22139,75 @@
       <c r="GC34" t="n">
         <v>0.033</v>
       </c>
+      <c r="GD34" t="n">
+        <v>7.524</v>
+      </c>
+      <c r="GE34" t="n">
+        <v>7.524</v>
+      </c>
+      <c r="GF34" t="n">
+        <v>0</v>
+      </c>
+      <c r="GG34" t="n">
+        <v>0</v>
+      </c>
+      <c r="GH34" t="n">
+        <v>0</v>
+      </c>
+      <c r="GI34" t="n">
+        <v>0</v>
+      </c>
+      <c r="GJ34" t="n">
+        <v>0</v>
+      </c>
+      <c r="GK34" t="n">
+        <v>0.033</v>
+      </c>
+      <c r="GL34" t="n">
+        <v>0.033</v>
+      </c>
+      <c r="GM34" t="n">
+        <v>0</v>
+      </c>
+      <c r="GN34" t="n">
+        <v>0</v>
+      </c>
+      <c r="GO34" t="n">
+        <v>0</v>
+      </c>
+      <c r="GP34" t="n">
+        <v>0</v>
+      </c>
+      <c r="GQ34" t="n">
+        <v>0</v>
+      </c>
+      <c r="GR34" t="n">
+        <v>0</v>
+      </c>
+      <c r="GS34" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT34" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU34" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV34" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW34" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX34" t="n">
+        <v>0</v>
+      </c>
+      <c r="GY34" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -20375,6 +22767,75 @@
       <c r="GC35" t="n">
         <v>16.002</v>
       </c>
+      <c r="GD35" t="n">
+        <v>4.621</v>
+      </c>
+      <c r="GE35" t="n">
+        <v>4.621</v>
+      </c>
+      <c r="GF35" t="n">
+        <v>0</v>
+      </c>
+      <c r="GG35" t="n">
+        <v>0</v>
+      </c>
+      <c r="GH35" t="n">
+        <v>0</v>
+      </c>
+      <c r="GI35" t="n">
+        <v>0</v>
+      </c>
+      <c r="GJ35" t="n">
+        <v>0</v>
+      </c>
+      <c r="GK35" t="n">
+        <v>18.034</v>
+      </c>
+      <c r="GL35" t="n">
+        <v>18.034</v>
+      </c>
+      <c r="GM35" t="n">
+        <v>0</v>
+      </c>
+      <c r="GN35" t="n">
+        <v>0</v>
+      </c>
+      <c r="GO35" t="n">
+        <v>0</v>
+      </c>
+      <c r="GP35" t="n">
+        <v>22.931</v>
+      </c>
+      <c r="GQ35" t="n">
+        <v>36.736</v>
+      </c>
+      <c r="GR35" t="n">
+        <v>0</v>
+      </c>
+      <c r="GS35" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT35" t="n">
+        <v>36.336</v>
+      </c>
+      <c r="GU35" t="n">
+        <v>26.531</v>
+      </c>
+      <c r="GV35" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW35" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX35" t="n">
+        <v>37.633</v>
+      </c>
+      <c r="GY35" t="n">
+        <v>26.434</v>
+      </c>
+      <c r="GZ35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -20934,6 +23395,75 @@
       <c r="GC36" t="n">
         <v>0</v>
       </c>
+      <c r="GD36" t="n">
+        <v>0</v>
+      </c>
+      <c r="GE36" t="n">
+        <v>0</v>
+      </c>
+      <c r="GF36" t="n">
+        <v>0</v>
+      </c>
+      <c r="GG36" t="n">
+        <v>0</v>
+      </c>
+      <c r="GH36" t="n">
+        <v>0</v>
+      </c>
+      <c r="GI36" t="n">
+        <v>0</v>
+      </c>
+      <c r="GJ36" t="n">
+        <v>0</v>
+      </c>
+      <c r="GK36" t="n">
+        <v>0</v>
+      </c>
+      <c r="GL36" t="n">
+        <v>0</v>
+      </c>
+      <c r="GM36" t="n">
+        <v>0</v>
+      </c>
+      <c r="GN36" t="n">
+        <v>0</v>
+      </c>
+      <c r="GO36" t="n">
+        <v>0</v>
+      </c>
+      <c r="GP36" t="n">
+        <v>0</v>
+      </c>
+      <c r="GQ36" t="n">
+        <v>0</v>
+      </c>
+      <c r="GR36" t="n">
+        <v>0</v>
+      </c>
+      <c r="GS36" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT36" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU36" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV36" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW36" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX36" t="n">
+        <v>0</v>
+      </c>
+      <c r="GY36" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -21493,6 +24023,75 @@
       <c r="GC37" t="n">
         <v>0</v>
       </c>
+      <c r="GD37" t="n">
+        <v>0</v>
+      </c>
+      <c r="GE37" t="n">
+        <v>0</v>
+      </c>
+      <c r="GF37" t="n">
+        <v>0</v>
+      </c>
+      <c r="GG37" t="n">
+        <v>0</v>
+      </c>
+      <c r="GH37" t="n">
+        <v>0</v>
+      </c>
+      <c r="GI37" t="n">
+        <v>0</v>
+      </c>
+      <c r="GJ37" t="n">
+        <v>0</v>
+      </c>
+      <c r="GK37" t="n">
+        <v>0</v>
+      </c>
+      <c r="GL37" t="n">
+        <v>0</v>
+      </c>
+      <c r="GM37" t="n">
+        <v>0</v>
+      </c>
+      <c r="GN37" t="n">
+        <v>0</v>
+      </c>
+      <c r="GO37" t="n">
+        <v>0</v>
+      </c>
+      <c r="GP37" t="n">
+        <v>0</v>
+      </c>
+      <c r="GQ37" t="n">
+        <v>0</v>
+      </c>
+      <c r="GR37" t="n">
+        <v>0</v>
+      </c>
+      <c r="GS37" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT37" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU37" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV37" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW37" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX37" t="n">
+        <v>0</v>
+      </c>
+      <c r="GY37" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ37" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -22052,6 +24651,75 @@
       <c r="GC38" t="n">
         <v>0</v>
       </c>
+      <c r="GD38" t="n">
+        <v>0</v>
+      </c>
+      <c r="GE38" t="n">
+        <v>0</v>
+      </c>
+      <c r="GF38" t="n">
+        <v>0</v>
+      </c>
+      <c r="GG38" t="n">
+        <v>0</v>
+      </c>
+      <c r="GH38" t="n">
+        <v>0</v>
+      </c>
+      <c r="GI38" t="n">
+        <v>0</v>
+      </c>
+      <c r="GJ38" t="n">
+        <v>0</v>
+      </c>
+      <c r="GK38" t="n">
+        <v>0</v>
+      </c>
+      <c r="GL38" t="n">
+        <v>0</v>
+      </c>
+      <c r="GM38" t="n">
+        <v>0</v>
+      </c>
+      <c r="GN38" t="n">
+        <v>0</v>
+      </c>
+      <c r="GO38" t="n">
+        <v>0</v>
+      </c>
+      <c r="GP38" t="n">
+        <v>0</v>
+      </c>
+      <c r="GQ38" t="n">
+        <v>0</v>
+      </c>
+      <c r="GR38" t="n">
+        <v>0</v>
+      </c>
+      <c r="GS38" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT38" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU38" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV38" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW38" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX38" t="n">
+        <v>0</v>
+      </c>
+      <c r="GY38" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -22611,6 +25279,75 @@
       <c r="GC39" t="n">
         <v>0</v>
       </c>
+      <c r="GD39" t="n">
+        <v>0</v>
+      </c>
+      <c r="GE39" t="n">
+        <v>0</v>
+      </c>
+      <c r="GF39" t="n">
+        <v>0</v>
+      </c>
+      <c r="GG39" t="n">
+        <v>0</v>
+      </c>
+      <c r="GH39" t="n">
+        <v>0</v>
+      </c>
+      <c r="GI39" t="n">
+        <v>0</v>
+      </c>
+      <c r="GJ39" t="n">
+        <v>0</v>
+      </c>
+      <c r="GK39" t="n">
+        <v>0</v>
+      </c>
+      <c r="GL39" t="n">
+        <v>0</v>
+      </c>
+      <c r="GM39" t="n">
+        <v>0</v>
+      </c>
+      <c r="GN39" t="n">
+        <v>0</v>
+      </c>
+      <c r="GO39" t="n">
+        <v>0</v>
+      </c>
+      <c r="GP39" t="n">
+        <v>0</v>
+      </c>
+      <c r="GQ39" t="n">
+        <v>0</v>
+      </c>
+      <c r="GR39" t="n">
+        <v>0</v>
+      </c>
+      <c r="GS39" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT39" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU39" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV39" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW39" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX39" t="n">
+        <v>0</v>
+      </c>
+      <c r="GY39" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -23170,6 +25907,75 @@
       <c r="GC40" t="n">
         <v>0</v>
       </c>
+      <c r="GD40" t="n">
+        <v>0</v>
+      </c>
+      <c r="GE40" t="n">
+        <v>0</v>
+      </c>
+      <c r="GF40" t="n">
+        <v>0</v>
+      </c>
+      <c r="GG40" t="n">
+        <v>0</v>
+      </c>
+      <c r="GH40" t="n">
+        <v>0</v>
+      </c>
+      <c r="GI40" t="n">
+        <v>0</v>
+      </c>
+      <c r="GJ40" t="n">
+        <v>0</v>
+      </c>
+      <c r="GK40" t="n">
+        <v>0</v>
+      </c>
+      <c r="GL40" t="n">
+        <v>0</v>
+      </c>
+      <c r="GM40" t="n">
+        <v>0</v>
+      </c>
+      <c r="GN40" t="n">
+        <v>0</v>
+      </c>
+      <c r="GO40" t="n">
+        <v>0</v>
+      </c>
+      <c r="GP40" t="n">
+        <v>0</v>
+      </c>
+      <c r="GQ40" t="n">
+        <v>0</v>
+      </c>
+      <c r="GR40" t="n">
+        <v>0</v>
+      </c>
+      <c r="GS40" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT40" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU40" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV40" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW40" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX40" t="n">
+        <v>0</v>
+      </c>
+      <c r="GY40" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -23729,6 +26535,75 @@
       <c r="GC41" t="n">
         <v>0</v>
       </c>
+      <c r="GD41" t="n">
+        <v>0</v>
+      </c>
+      <c r="GE41" t="n">
+        <v>0</v>
+      </c>
+      <c r="GF41" t="n">
+        <v>0</v>
+      </c>
+      <c r="GG41" t="n">
+        <v>0</v>
+      </c>
+      <c r="GH41" t="n">
+        <v>0</v>
+      </c>
+      <c r="GI41" t="n">
+        <v>0</v>
+      </c>
+      <c r="GJ41" t="n">
+        <v>0</v>
+      </c>
+      <c r="GK41" t="n">
+        <v>0</v>
+      </c>
+      <c r="GL41" t="n">
+        <v>0</v>
+      </c>
+      <c r="GM41" t="n">
+        <v>0</v>
+      </c>
+      <c r="GN41" t="n">
+        <v>0</v>
+      </c>
+      <c r="GO41" t="n">
+        <v>0</v>
+      </c>
+      <c r="GP41" t="n">
+        <v>0</v>
+      </c>
+      <c r="GQ41" t="n">
+        <v>0</v>
+      </c>
+      <c r="GR41" t="n">
+        <v>0</v>
+      </c>
+      <c r="GS41" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT41" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU41" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV41" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW41" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX41" t="n">
+        <v>0</v>
+      </c>
+      <c r="GY41" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -24288,6 +27163,75 @@
       <c r="GC42" t="n">
         <v>0</v>
       </c>
+      <c r="GD42" t="n">
+        <v>0</v>
+      </c>
+      <c r="GE42" t="n">
+        <v>0</v>
+      </c>
+      <c r="GF42" t="n">
+        <v>0</v>
+      </c>
+      <c r="GG42" t="n">
+        <v>0</v>
+      </c>
+      <c r="GH42" t="n">
+        <v>0</v>
+      </c>
+      <c r="GI42" t="n">
+        <v>0</v>
+      </c>
+      <c r="GJ42" t="n">
+        <v>0</v>
+      </c>
+      <c r="GK42" t="n">
+        <v>0</v>
+      </c>
+      <c r="GL42" t="n">
+        <v>0</v>
+      </c>
+      <c r="GM42" t="n">
+        <v>0</v>
+      </c>
+      <c r="GN42" t="n">
+        <v>0</v>
+      </c>
+      <c r="GO42" t="n">
+        <v>0</v>
+      </c>
+      <c r="GP42" t="n">
+        <v>0</v>
+      </c>
+      <c r="GQ42" t="n">
+        <v>0</v>
+      </c>
+      <c r="GR42" t="n">
+        <v>0</v>
+      </c>
+      <c r="GS42" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT42" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU42" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV42" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW42" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX42" t="n">
+        <v>0</v>
+      </c>
+      <c r="GY42" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -24847,6 +27791,75 @@
       <c r="GC43" t="n">
         <v>0</v>
       </c>
+      <c r="GD43" t="n">
+        <v>0</v>
+      </c>
+      <c r="GE43" t="n">
+        <v>0</v>
+      </c>
+      <c r="GF43" t="n">
+        <v>0</v>
+      </c>
+      <c r="GG43" t="n">
+        <v>0</v>
+      </c>
+      <c r="GH43" t="n">
+        <v>0</v>
+      </c>
+      <c r="GI43" t="n">
+        <v>0</v>
+      </c>
+      <c r="GJ43" t="n">
+        <v>0</v>
+      </c>
+      <c r="GK43" t="n">
+        <v>0</v>
+      </c>
+      <c r="GL43" t="n">
+        <v>0</v>
+      </c>
+      <c r="GM43" t="n">
+        <v>0</v>
+      </c>
+      <c r="GN43" t="n">
+        <v>0</v>
+      </c>
+      <c r="GO43" t="n">
+        <v>0</v>
+      </c>
+      <c r="GP43" t="n">
+        <v>0</v>
+      </c>
+      <c r="GQ43" t="n">
+        <v>0</v>
+      </c>
+      <c r="GR43" t="n">
+        <v>0</v>
+      </c>
+      <c r="GS43" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT43" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU43" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV43" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW43" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX43" t="n">
+        <v>0</v>
+      </c>
+      <c r="GY43" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ43" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -25406,6 +28419,75 @@
       <c r="GC44" t="n">
         <v>0</v>
       </c>
+      <c r="GD44" t="n">
+        <v>0</v>
+      </c>
+      <c r="GE44" t="n">
+        <v>0</v>
+      </c>
+      <c r="GF44" t="n">
+        <v>0</v>
+      </c>
+      <c r="GG44" t="n">
+        <v>0</v>
+      </c>
+      <c r="GH44" t="n">
+        <v>0</v>
+      </c>
+      <c r="GI44" t="n">
+        <v>0</v>
+      </c>
+      <c r="GJ44" t="n">
+        <v>0</v>
+      </c>
+      <c r="GK44" t="n">
+        <v>0</v>
+      </c>
+      <c r="GL44" t="n">
+        <v>0</v>
+      </c>
+      <c r="GM44" t="n">
+        <v>0</v>
+      </c>
+      <c r="GN44" t="n">
+        <v>0</v>
+      </c>
+      <c r="GO44" t="n">
+        <v>0</v>
+      </c>
+      <c r="GP44" t="n">
+        <v>0</v>
+      </c>
+      <c r="GQ44" t="n">
+        <v>0</v>
+      </c>
+      <c r="GR44" t="n">
+        <v>0</v>
+      </c>
+      <c r="GS44" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT44" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU44" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV44" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW44" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX44" t="n">
+        <v>0</v>
+      </c>
+      <c r="GY44" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -25965,6 +29047,75 @@
       <c r="GC45" t="n">
         <v>0</v>
       </c>
+      <c r="GD45" t="n">
+        <v>0</v>
+      </c>
+      <c r="GE45" t="n">
+        <v>0</v>
+      </c>
+      <c r="GF45" t="n">
+        <v>0</v>
+      </c>
+      <c r="GG45" t="n">
+        <v>0</v>
+      </c>
+      <c r="GH45" t="n">
+        <v>0</v>
+      </c>
+      <c r="GI45" t="n">
+        <v>0</v>
+      </c>
+      <c r="GJ45" t="n">
+        <v>0</v>
+      </c>
+      <c r="GK45" t="n">
+        <v>0</v>
+      </c>
+      <c r="GL45" t="n">
+        <v>0</v>
+      </c>
+      <c r="GM45" t="n">
+        <v>0</v>
+      </c>
+      <c r="GN45" t="n">
+        <v>0</v>
+      </c>
+      <c r="GO45" t="n">
+        <v>0</v>
+      </c>
+      <c r="GP45" t="n">
+        <v>0</v>
+      </c>
+      <c r="GQ45" t="n">
+        <v>0</v>
+      </c>
+      <c r="GR45" t="n">
+        <v>0</v>
+      </c>
+      <c r="GS45" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT45" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU45" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV45" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW45" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX45" t="n">
+        <v>0</v>
+      </c>
+      <c r="GY45" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -26524,6 +29675,75 @@
       <c r="GC46" t="n">
         <v>0</v>
       </c>
+      <c r="GD46" t="n">
+        <v>0</v>
+      </c>
+      <c r="GE46" t="n">
+        <v>0</v>
+      </c>
+      <c r="GF46" t="n">
+        <v>0</v>
+      </c>
+      <c r="GG46" t="n">
+        <v>0</v>
+      </c>
+      <c r="GH46" t="n">
+        <v>0</v>
+      </c>
+      <c r="GI46" t="n">
+        <v>0</v>
+      </c>
+      <c r="GJ46" t="n">
+        <v>0</v>
+      </c>
+      <c r="GK46" t="n">
+        <v>0</v>
+      </c>
+      <c r="GL46" t="n">
+        <v>0</v>
+      </c>
+      <c r="GM46" t="n">
+        <v>0</v>
+      </c>
+      <c r="GN46" t="n">
+        <v>0</v>
+      </c>
+      <c r="GO46" t="n">
+        <v>0</v>
+      </c>
+      <c r="GP46" t="n">
+        <v>0</v>
+      </c>
+      <c r="GQ46" t="n">
+        <v>0</v>
+      </c>
+      <c r="GR46" t="n">
+        <v>0</v>
+      </c>
+      <c r="GS46" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT46" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU46" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV46" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW46" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX46" t="n">
+        <v>0</v>
+      </c>
+      <c r="GY46" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ46" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -27083,6 +30303,75 @@
       <c r="GC47" t="n">
         <v>0</v>
       </c>
+      <c r="GD47" t="n">
+        <v>0</v>
+      </c>
+      <c r="GE47" t="n">
+        <v>0</v>
+      </c>
+      <c r="GF47" t="n">
+        <v>0.533</v>
+      </c>
+      <c r="GG47" t="n">
+        <v>0.533</v>
+      </c>
+      <c r="GH47" t="n">
+        <v>0.533</v>
+      </c>
+      <c r="GI47" t="n">
+        <v>0.533</v>
+      </c>
+      <c r="GJ47" t="n">
+        <v>0.533</v>
+      </c>
+      <c r="GK47" t="n">
+        <v>0</v>
+      </c>
+      <c r="GL47" t="n">
+        <v>0</v>
+      </c>
+      <c r="GM47" t="n">
+        <v>0</v>
+      </c>
+      <c r="GN47" t="n">
+        <v>0</v>
+      </c>
+      <c r="GO47" t="n">
+        <v>34</v>
+      </c>
+      <c r="GP47" t="n">
+        <v>0</v>
+      </c>
+      <c r="GQ47" t="n">
+        <v>0</v>
+      </c>
+      <c r="GR47" t="n">
+        <v>0</v>
+      </c>
+      <c r="GS47" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT47" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU47" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV47" t="n">
+        <v>30.967</v>
+      </c>
+      <c r="GW47" t="n">
+        <v>28.133</v>
+      </c>
+      <c r="GX47" t="n">
+        <v>0</v>
+      </c>
+      <c r="GY47" t="n">
+        <v>37.633</v>
+      </c>
+      <c r="GZ47" t="n">
+        <v>34.401</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -27648,6 +30937,75 @@
       <c r="GC48" t="n">
         <v>0</v>
       </c>
+      <c r="GD48" t="n">
+        <v>0</v>
+      </c>
+      <c r="GE48" t="n">
+        <v>0</v>
+      </c>
+      <c r="GF48" t="n">
+        <v>0</v>
+      </c>
+      <c r="GG48" t="n">
+        <v>0</v>
+      </c>
+      <c r="GH48" t="n">
+        <v>0</v>
+      </c>
+      <c r="GI48" t="n">
+        <v>0</v>
+      </c>
+      <c r="GJ48" t="n">
+        <v>0</v>
+      </c>
+      <c r="GK48" t="n">
+        <v>0</v>
+      </c>
+      <c r="GL48" t="n">
+        <v>0</v>
+      </c>
+      <c r="GM48" t="n">
+        <v>0</v>
+      </c>
+      <c r="GN48" t="n">
+        <v>0</v>
+      </c>
+      <c r="GO48" t="n">
+        <v>0</v>
+      </c>
+      <c r="GP48" t="n">
+        <v>0</v>
+      </c>
+      <c r="GQ48" t="n">
+        <v>0</v>
+      </c>
+      <c r="GR48" t="n">
+        <v>0</v>
+      </c>
+      <c r="GS48" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT48" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU48" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV48" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW48" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX48" t="n">
+        <v>0</v>
+      </c>
+      <c r="GY48" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -28207,6 +31565,75 @@
       <c r="GC49" t="n">
         <v>0</v>
       </c>
+      <c r="GD49" t="n">
+        <v>0</v>
+      </c>
+      <c r="GE49" t="n">
+        <v>0</v>
+      </c>
+      <c r="GF49" t="n">
+        <v>0</v>
+      </c>
+      <c r="GG49" t="n">
+        <v>0</v>
+      </c>
+      <c r="GH49" t="n">
+        <v>0</v>
+      </c>
+      <c r="GI49" t="n">
+        <v>0</v>
+      </c>
+      <c r="GJ49" t="n">
+        <v>0</v>
+      </c>
+      <c r="GK49" t="n">
+        <v>0</v>
+      </c>
+      <c r="GL49" t="n">
+        <v>0</v>
+      </c>
+      <c r="GM49" t="n">
+        <v>0</v>
+      </c>
+      <c r="GN49" t="n">
+        <v>0</v>
+      </c>
+      <c r="GO49" t="n">
+        <v>0</v>
+      </c>
+      <c r="GP49" t="n">
+        <v>0</v>
+      </c>
+      <c r="GQ49" t="n">
+        <v>0</v>
+      </c>
+      <c r="GR49" t="n">
+        <v>0</v>
+      </c>
+      <c r="GS49" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT49" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU49" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV49" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW49" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX49" t="n">
+        <v>0</v>
+      </c>
+      <c r="GY49" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ49" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -28842,6 +32269,121 @@
           <t>Quico</t>
         </is>
       </c>
+      <c r="GD50" t="inlineStr">
+        <is>
+          <t>Musculoso</t>
+        </is>
+      </c>
+      <c r="GE50" t="inlineStr">
+        <is>
+          <t>Musculoso</t>
+        </is>
+      </c>
+      <c r="GF50" t="inlineStr">
+        <is>
+          <t>Bob</t>
+        </is>
+      </c>
+      <c r="GG50" t="inlineStr">
+        <is>
+          <t>Bob</t>
+        </is>
+      </c>
+      <c r="GH50" t="inlineStr">
+        <is>
+          <t>Bob</t>
+        </is>
+      </c>
+      <c r="GI50" t="inlineStr">
+        <is>
+          <t>Bob</t>
+        </is>
+      </c>
+      <c r="GJ50" t="inlineStr">
+        <is>
+          <t>Bob</t>
+        </is>
+      </c>
+      <c r="GK50" t="inlineStr">
+        <is>
+          <t>Quico</t>
+        </is>
+      </c>
+      <c r="GL50" t="inlineStr">
+        <is>
+          <t>Quico</t>
+        </is>
+      </c>
+      <c r="GM50" t="inlineStr">
+        <is>
+          <t>Dulceprincesa</t>
+        </is>
+      </c>
+      <c r="GN50" t="inlineStr">
+        <is>
+          <t>Finn</t>
+        </is>
+      </c>
+      <c r="GO50" t="inlineStr">
+        <is>
+          <t>Ben10</t>
+        </is>
+      </c>
+      <c r="GP50" t="inlineStr">
+        <is>
+          <t>Dulceprincesa</t>
+        </is>
+      </c>
+      <c r="GQ50" t="inlineStr">
+        <is>
+          <t>Quico</t>
+        </is>
+      </c>
+      <c r="GR50" t="inlineStr">
+        <is>
+          <t>Marceline</t>
+        </is>
+      </c>
+      <c r="GS50" t="inlineStr">
+        <is>
+          <t>Marceline</t>
+        </is>
+      </c>
+      <c r="GT50" t="inlineStr">
+        <is>
+          <t>Quico</t>
+        </is>
+      </c>
+      <c r="GU50" t="inlineStr">
+        <is>
+          <t>Finn</t>
+        </is>
+      </c>
+      <c r="GV50" t="inlineStr">
+        <is>
+          <t>Ben10</t>
+        </is>
+      </c>
+      <c r="GW50" t="inlineStr">
+        <is>
+          <t>Marceline</t>
+        </is>
+      </c>
+      <c r="GX50" t="inlineStr">
+        <is>
+          <t>Quico</t>
+        </is>
+      </c>
+      <c r="GY50" t="inlineStr">
+        <is>
+          <t>Ben10</t>
+        </is>
+      </c>
+      <c r="GZ50" t="inlineStr">
+        <is>
+          <t>Ben10</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
@@ -29685,6 +33227,75 @@
         <v>0</v>
       </c>
       <c r="GC51" t="n">
+        <v>0</v>
+      </c>
+      <c r="GD51" t="n">
+        <v>0</v>
+      </c>
+      <c r="GE51" t="n">
+        <v>0</v>
+      </c>
+      <c r="GF51" t="n">
+        <v>0</v>
+      </c>
+      <c r="GG51" t="n">
+        <v>0</v>
+      </c>
+      <c r="GH51" t="n">
+        <v>0</v>
+      </c>
+      <c r="GI51" t="n">
+        <v>0</v>
+      </c>
+      <c r="GJ51" t="n">
+        <v>0</v>
+      </c>
+      <c r="GK51" t="n">
+        <v>0</v>
+      </c>
+      <c r="GL51" t="n">
+        <v>0</v>
+      </c>
+      <c r="GM51" t="n">
+        <v>0</v>
+      </c>
+      <c r="GN51" t="n">
+        <v>0</v>
+      </c>
+      <c r="GO51" t="n">
+        <v>0</v>
+      </c>
+      <c r="GP51" t="n">
+        <v>0</v>
+      </c>
+      <c r="GQ51" t="n">
+        <v>0</v>
+      </c>
+      <c r="GR51" t="n">
+        <v>0</v>
+      </c>
+      <c r="GS51" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT51" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU51" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV51" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW51" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX51" t="n">
+        <v>0</v>
+      </c>
+      <c r="GY51" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ51" t="n">
         <v>0</v>
       </c>
     </row>

--- a/historico_runs.xlsx
+++ b/historico_runs.xlsx
@@ -438,7 +438,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:GZ51"/>
+  <dimension ref="A1:HA51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A51" sqref="A51"/>
@@ -1482,6 +1482,11 @@
           <t>Run207</t>
         </is>
       </c>
+      <c r="HA1" t="inlineStr">
+        <is>
+          <t>Run208</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -2110,6 +2115,9 @@
       <c r="GZ2" t="n">
         <v>0</v>
       </c>
+      <c r="HA2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -2738,6 +2746,9 @@
       <c r="GZ3" t="n">
         <v>0</v>
       </c>
+      <c r="HA3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -3366,6 +3377,9 @@
       <c r="GZ4" t="n">
         <v>0</v>
       </c>
+      <c r="HA4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -3994,6 +4008,9 @@
       <c r="GZ5" t="n">
         <v>0</v>
       </c>
+      <c r="HA5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -4622,6 +4639,9 @@
       <c r="GZ6" t="n">
         <v>0</v>
       </c>
+      <c r="HA6" t="n">
+        <v>3.167</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -5250,6 +5270,9 @@
       <c r="GZ7" t="n">
         <v>0</v>
       </c>
+      <c r="HA7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -5878,6 +5901,9 @@
       <c r="GZ8" t="n">
         <v>0</v>
       </c>
+      <c r="HA8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -6506,6 +6532,9 @@
       <c r="GZ9" t="n">
         <v>0</v>
       </c>
+      <c r="HA9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -7134,6 +7163,9 @@
       <c r="GZ10" t="n">
         <v>0</v>
       </c>
+      <c r="HA10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -7762,6 +7794,9 @@
       <c r="GZ11" t="n">
         <v>0</v>
       </c>
+      <c r="HA11" t="n">
+        <v>14.634</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -8390,6 +8425,9 @@
       <c r="GZ12" t="n">
         <v>0</v>
       </c>
+      <c r="HA12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -9020,6 +9058,9 @@
       <c r="GZ13" t="n">
         <v>0</v>
       </c>
+      <c r="HA13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -9648,6 +9689,9 @@
       <c r="GZ14" t="n">
         <v>0</v>
       </c>
+      <c r="HA14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -10276,6 +10320,9 @@
       <c r="GZ15" t="n">
         <v>0</v>
       </c>
+      <c r="HA15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -10904,6 +10951,9 @@
       <c r="GZ16" t="n">
         <v>0</v>
       </c>
+      <c r="HA16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -11532,6 +11582,9 @@
       <c r="GZ17" t="n">
         <v>0</v>
       </c>
+      <c r="HA17" t="n">
+        <v>1.733</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -12160,6 +12213,9 @@
       <c r="GZ18" t="n">
         <v>0</v>
       </c>
+      <c r="HA18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -12788,6 +12844,9 @@
       <c r="GZ19" t="n">
         <v>0</v>
       </c>
+      <c r="HA19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -13416,6 +13475,9 @@
       <c r="GZ20" t="n">
         <v>27.032</v>
       </c>
+      <c r="HA20" t="n">
+        <v>10.867</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -14044,6 +14106,9 @@
       <c r="GZ21" t="n">
         <v>0</v>
       </c>
+      <c r="HA21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -14672,6 +14737,9 @@
       <c r="GZ22" t="n">
         <v>0</v>
       </c>
+      <c r="HA22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -15300,6 +15368,9 @@
       <c r="GZ23" t="n">
         <v>0</v>
       </c>
+      <c r="HA23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -15928,6 +15999,9 @@
       <c r="GZ24" t="n">
         <v>0</v>
       </c>
+      <c r="HA24" t="n">
+        <v>6.032</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -16556,6 +16630,9 @@
       <c r="GZ25" t="n">
         <v>0</v>
       </c>
+      <c r="HA25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -17184,6 +17261,9 @@
       <c r="GZ26" t="n">
         <v>0</v>
       </c>
+      <c r="HA26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -17812,6 +17892,9 @@
       <c r="GZ27" t="n">
         <v>0</v>
       </c>
+      <c r="HA27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -18440,6 +18523,9 @@
       <c r="GZ28" t="n">
         <v>0</v>
       </c>
+      <c r="HA28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -19068,6 +19154,9 @@
       <c r="GZ29" t="n">
         <v>0</v>
       </c>
+      <c r="HA29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -19696,6 +19785,9 @@
       <c r="GZ30" t="n">
         <v>0</v>
       </c>
+      <c r="HA30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -20324,6 +20416,9 @@
       <c r="GZ31" t="n">
         <v>0</v>
       </c>
+      <c r="HA31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -20952,6 +21047,9 @@
       <c r="GZ32" t="n">
         <v>0</v>
       </c>
+      <c r="HA32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -21580,6 +21678,9 @@
       <c r="GZ33" t="n">
         <v>0</v>
       </c>
+      <c r="HA33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -22208,6 +22309,9 @@
       <c r="GZ34" t="n">
         <v>0</v>
       </c>
+      <c r="HA34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -22836,6 +22940,9 @@
       <c r="GZ35" t="n">
         <v>0</v>
       </c>
+      <c r="HA35" t="n">
+        <v>12.033</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -23464,6 +23571,9 @@
       <c r="GZ36" t="n">
         <v>0</v>
       </c>
+      <c r="HA36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -24092,6 +24202,9 @@
       <c r="GZ37" t="n">
         <v>0</v>
       </c>
+      <c r="HA37" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -24720,6 +24833,9 @@
       <c r="GZ38" t="n">
         <v>0</v>
       </c>
+      <c r="HA38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -25348,6 +25464,9 @@
       <c r="GZ39" t="n">
         <v>0</v>
       </c>
+      <c r="HA39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -25976,6 +26095,9 @@
       <c r="GZ40" t="n">
         <v>0</v>
       </c>
+      <c r="HA40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -26604,6 +26726,9 @@
       <c r="GZ41" t="n">
         <v>0</v>
       </c>
+      <c r="HA41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -27232,6 +27357,9 @@
       <c r="GZ42" t="n">
         <v>0</v>
       </c>
+      <c r="HA42" t="n">
+        <v>3.467</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -27860,6 +27988,9 @@
       <c r="GZ43" t="n">
         <v>0</v>
       </c>
+      <c r="HA43" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -28488,6 +28619,9 @@
       <c r="GZ44" t="n">
         <v>0</v>
       </c>
+      <c r="HA44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -29116,6 +29250,9 @@
       <c r="GZ45" t="n">
         <v>0</v>
       </c>
+      <c r="HA45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -29744,6 +29881,9 @@
       <c r="GZ46" t="n">
         <v>0</v>
       </c>
+      <c r="HA46" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -30372,6 +30512,9 @@
       <c r="GZ47" t="n">
         <v>34.401</v>
       </c>
+      <c r="HA47" t="n">
+        <v>9.334</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -31006,6 +31149,9 @@
       <c r="GZ48" t="n">
         <v>0</v>
       </c>
+      <c r="HA48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -31634,6 +31780,9 @@
       <c r="GZ49" t="n">
         <v>0</v>
       </c>
+      <c r="HA49" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -32384,6 +32533,11 @@
           <t>Ben10</t>
         </is>
       </c>
+      <c r="HA50" t="inlineStr">
+        <is>
+          <t>Naruto</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
@@ -33296,6 +33450,9 @@
         <v>0</v>
       </c>
       <c r="GZ51" t="n">
+        <v>0</v>
+      </c>
+      <c r="HA51" t="n">
         <v>0</v>
       </c>
     </row>

--- a/historico_runs.xlsx
+++ b/historico_runs.xlsx
@@ -438,7 +438,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HA51"/>
+  <dimension ref="A1:HB51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A51" sqref="A51"/>
@@ -1487,6 +1487,11 @@
           <t>Run208</t>
         </is>
       </c>
+      <c r="HB1" t="inlineStr">
+        <is>
+          <t>Run209</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -2118,6 +2123,9 @@
       <c r="HA2" t="n">
         <v>0</v>
       </c>
+      <c r="HB2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -2749,6 +2757,9 @@
       <c r="HA3" t="n">
         <v>0</v>
       </c>
+      <c r="HB3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -3380,6 +3391,9 @@
       <c r="HA4" t="n">
         <v>0</v>
       </c>
+      <c r="HB4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -4011,6 +4025,9 @@
       <c r="HA5" t="n">
         <v>0</v>
       </c>
+      <c r="HB5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -4642,6 +4659,9 @@
       <c r="HA6" t="n">
         <v>3.167</v>
       </c>
+      <c r="HB6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -5273,6 +5293,9 @@
       <c r="HA7" t="n">
         <v>0</v>
       </c>
+      <c r="HB7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -5904,6 +5927,9 @@
       <c r="HA8" t="n">
         <v>0</v>
       </c>
+      <c r="HB8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -6535,6 +6561,9 @@
       <c r="HA9" t="n">
         <v>0</v>
       </c>
+      <c r="HB9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -7166,6 +7195,9 @@
       <c r="HA10" t="n">
         <v>0</v>
       </c>
+      <c r="HB10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -7797,6 +7829,9 @@
       <c r="HA11" t="n">
         <v>14.634</v>
       </c>
+      <c r="HB11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -8428,6 +8463,9 @@
       <c r="HA12" t="n">
         <v>0</v>
       </c>
+      <c r="HB12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -9061,6 +9099,9 @@
       <c r="HA13" t="n">
         <v>0</v>
       </c>
+      <c r="HB13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -9692,6 +9733,9 @@
       <c r="HA14" t="n">
         <v>0</v>
       </c>
+      <c r="HB14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -10323,6 +10367,9 @@
       <c r="HA15" t="n">
         <v>0</v>
       </c>
+      <c r="HB15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -10954,6 +11001,9 @@
       <c r="HA16" t="n">
         <v>0</v>
       </c>
+      <c r="HB16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -11585,6 +11635,9 @@
       <c r="HA17" t="n">
         <v>1.733</v>
       </c>
+      <c r="HB17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -12216,6 +12269,9 @@
       <c r="HA18" t="n">
         <v>0</v>
       </c>
+      <c r="HB18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -12847,6 +12903,9 @@
       <c r="HA19" t="n">
         <v>0</v>
       </c>
+      <c r="HB19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -13478,6 +13537,9 @@
       <c r="HA20" t="n">
         <v>10.867</v>
       </c>
+      <c r="HB20" t="n">
+        <v>25.432</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -14109,6 +14171,9 @@
       <c r="HA21" t="n">
         <v>0</v>
       </c>
+      <c r="HB21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -14740,6 +14805,9 @@
       <c r="HA22" t="n">
         <v>0</v>
       </c>
+      <c r="HB22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -15371,6 +15439,9 @@
       <c r="HA23" t="n">
         <v>0</v>
       </c>
+      <c r="HB23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -16002,6 +16073,9 @@
       <c r="HA24" t="n">
         <v>6.032</v>
       </c>
+      <c r="HB24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -16633,6 +16707,9 @@
       <c r="HA25" t="n">
         <v>0</v>
       </c>
+      <c r="HB25" t="n">
+        <v>38.868</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -17264,6 +17341,9 @@
       <c r="HA26" t="n">
         <v>0</v>
       </c>
+      <c r="HB26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -17895,6 +17975,9 @@
       <c r="HA27" t="n">
         <v>0</v>
       </c>
+      <c r="HB27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -18526,6 +18609,9 @@
       <c r="HA28" t="n">
         <v>0</v>
       </c>
+      <c r="HB28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -19157,6 +19243,9 @@
       <c r="HA29" t="n">
         <v>0</v>
       </c>
+      <c r="HB29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -19788,6 +19877,9 @@
       <c r="HA30" t="n">
         <v>0</v>
       </c>
+      <c r="HB30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -20419,6 +20511,9 @@
       <c r="HA31" t="n">
         <v>0</v>
       </c>
+      <c r="HB31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -21050,6 +21145,9 @@
       <c r="HA32" t="n">
         <v>0</v>
       </c>
+      <c r="HB32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -21681,6 +21779,9 @@
       <c r="HA33" t="n">
         <v>0</v>
       </c>
+      <c r="HB33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -22312,6 +22413,9 @@
       <c r="HA34" t="n">
         <v>0</v>
       </c>
+      <c r="HB34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -22943,6 +23047,9 @@
       <c r="HA35" t="n">
         <v>12.033</v>
       </c>
+      <c r="HB35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -23574,6 +23681,9 @@
       <c r="HA36" t="n">
         <v>0</v>
       </c>
+      <c r="HB36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -24205,6 +24315,9 @@
       <c r="HA37" t="n">
         <v>0</v>
       </c>
+      <c r="HB37" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -24836,6 +24949,9 @@
       <c r="HA38" t="n">
         <v>0</v>
       </c>
+      <c r="HB38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -25467,6 +25583,9 @@
       <c r="HA39" t="n">
         <v>0</v>
       </c>
+      <c r="HB39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -26098,6 +26217,9 @@
       <c r="HA40" t="n">
         <v>0</v>
       </c>
+      <c r="HB40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -26729,6 +26851,9 @@
       <c r="HA41" t="n">
         <v>0</v>
       </c>
+      <c r="HB41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -27360,6 +27485,9 @@
       <c r="HA42" t="n">
         <v>3.467</v>
       </c>
+      <c r="HB42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -27991,6 +28119,9 @@
       <c r="HA43" t="n">
         <v>0</v>
       </c>
+      <c r="HB43" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -28622,6 +28753,9 @@
       <c r="HA44" t="n">
         <v>0</v>
       </c>
+      <c r="HB44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -29253,6 +29387,9 @@
       <c r="HA45" t="n">
         <v>0</v>
       </c>
+      <c r="HB45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -29884,6 +30021,9 @@
       <c r="HA46" t="n">
         <v>0</v>
       </c>
+      <c r="HB46" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -30515,6 +30655,9 @@
       <c r="HA47" t="n">
         <v>9.334</v>
       </c>
+      <c r="HB47" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -31152,6 +31295,9 @@
       <c r="HA48" t="n">
         <v>0</v>
       </c>
+      <c r="HB48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -31783,6 +31929,9 @@
       <c r="HA49" t="n">
         <v>0</v>
       </c>
+      <c r="HB49" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -32538,6 +32687,11 @@
           <t>Naruto</t>
         </is>
       </c>
+      <c r="HB50" t="inlineStr">
+        <is>
+          <t>Dipper</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
@@ -33453,6 +33607,9 @@
         <v>0</v>
       </c>
       <c r="HA51" t="n">
+        <v>0</v>
+      </c>
+      <c r="HB51" t="n">
         <v>0</v>
       </c>
     </row>
